--- a/C1000-48T-4G-L.xlsx
+++ b/C1000-48T-4G-L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828D99A6-89AB-4E4D-8AC3-16DD152FB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE879CF-CBE5-4A5B-B3F6-9368B96FBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12672" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
   <sheets>
     <sheet name="C1000-48T-4G-L" sheetId="1" r:id="rId1"/>
@@ -323,9 +323,15 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -334,12 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -660,18 +660,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1328125" customWidth="1"/>
-    <col min="3" max="3" width="30.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,16 +680,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -700,7 +698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -709,7 +707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -718,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -727,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -736,7 +734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -745,7 +743,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>36</v>
@@ -754,7 +752,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
@@ -763,7 +761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="97.15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -772,37 +770,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="15"/>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>19</v>
@@ -811,15 +809,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:3" ht="97.15" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -827,8 +825,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -836,8 +834,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="69.400000000000006" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
@@ -845,8 +843,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -854,8 +852,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
@@ -863,8 +861,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
